--- a/InputData/elec/BNHSC/BAU Non Hydro Storage Cap.xlsx
+++ b/InputData/elec/BNHSC/BAU Non Hydro Storage Cap.xlsx
@@ -42,9 +42,6 @@
     <t>Energy Information Administration</t>
   </si>
   <si>
-    <t>Annual Energy Outlook 2014</t>
-  </si>
-  <si>
     <t>http://www.eia.gov/forecasts/aeo/excel/aeotab_9.xlsx</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Capacity (GW)</t>
   </si>
   <si>
-    <t>Pumped Hydro Capacity (from EIA AEO 2014)</t>
-  </si>
-  <si>
     <t>We linearly interpolate between the two-year reporting intervals in REF.</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>BNHSC BAU Non Hydro Storage Capacity</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2015</t>
+  </si>
+  <si>
+    <t>Pumped Hydro Capacity (from EIA AEO 2015)</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,22 +928,22 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -970,47 +970,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,21 +1135,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>Year</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
